--- a/results/I3_N5_M2_T15_C200_DepCentral_s4_P3_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s4_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.0507425504064</v>
+        <v>250.7307425503977</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6350307079189164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6350307079189164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34.87000000000874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.45</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -863,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.385362071892702</v>
+        <v>12.18397443193427</v>
       </c>
     </row>
     <row r="4">
@@ -895,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.854390220780438</v>
+        <v>5.145609779219562</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,20 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000006</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000007</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -1101,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000893</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1112,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000921</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1123,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>135.9800000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1134,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.4300000000007</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -1145,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>148.2900000000007</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -1156,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>153.45</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
@@ -1167,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>147.0200000000007</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>191.9750000000015</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -1189,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>201.8300000000015</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>205.2950000000014</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
@@ -1211,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>207.3100000000015</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
@@ -1222,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000000007</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -1244,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000000008</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -1255,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000000007</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -1266,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000000008</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -1277,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000000007</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -1288,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.8399999999998</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1299,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.6949999999998</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1310,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>161.6799999999998</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1321,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>160.4150000000086</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1332,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>151.6050000000089</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1343,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.8399999999998</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1354,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.6949999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -1365,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.6799999999998</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1376,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>160.4150000000086</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -1387,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>151.6050000000089</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -1398,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>191.9750000000015</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38">
@@ -1409,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>201.8300000000015</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39">
@@ -1420,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>205.2950000000014</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40">
@@ -1431,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>207.3100000000015</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41">
@@ -1442,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.830000000001466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1566,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.295000000001448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1577,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.310000000001458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1588,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1646,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1657,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1668,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1679,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1690,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1701,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1712,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1723,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1734,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1800,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1811,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1822,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1833,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1844,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1855,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1866,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1877,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1888,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1899,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1938,50 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
